--- a/新学校运营保本计算.xlsx
+++ b/新学校运营保本计算.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,26 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暑假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中部一年总利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初中部一年总利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学部一年总利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新学校总利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,129 +50,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小学部利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前台工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招生成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年总利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">24000
-老师工资:120节课 * 200元 = 24000元
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12000
-老师工资:60节课 * 200元 = 12000元
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">96000
-学费（80人 * 1200元 = 96000元）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">48000
-学费（80人 * 600元 = 48000）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24000
-老师工资:120节课 * 200元 = 24000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">64000
-学费（80人 * 800元 = 64000元）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">16000
-老师工资：80节课 * 200元 = 16000元
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">学费（40人 * 1500元 = 60000元）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学费（40人 * 750元 = 30000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30节课 * 150元 = 4500元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学费（40人 * 1500元 = 60000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60节课 * 150元 =9000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学费（40人 * 1000元 = 40000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40节课 * 150元 = 6000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">80000元
-学费（40人 * 400元 * 5个月 = 80000元）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">25000元
-老师工资：2个人 * 2500元 * 5个月 = 25000元
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16000元
-学费（40人 * 400元 * 1个月 = 16000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5000元
-老师工资：2个人 * 2500元 * 1个月 = 5000元
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">25000
-老师工资：2个人 * 2500元 * 5个月 = 25000元
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">16000元
-学费（40人 * 400元 * 1个月 = 16000元）
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保本预算
 （高中20元一节课，初中25元一节课，小学400元一个月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180节课 * 150元 =27000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（96人 * 1200元 = 115200元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资:180节课 * 200元 = 36000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（96人 * 600元 = 48000）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资:80节课 * 200元 = 16000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资:180节课 * 200元 = 36000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（96人 * 800元 = 64000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资：120节课 * 200元 = 24000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（96人 * 1500元 = 144000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费（96人 * 750元 = 72000元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90节课 * 150元 = 13500元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学费（96人 * 1500元 = 144000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120节课 * 150元 = 18000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资：2个人 * 2500元 * 5个月 = 25000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资：2个人 * 2500元 * 1个月 = 5000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年总利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（48人 * 400元 * 5个月 = 96000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（48人 * 500元 * 1个月 = 24000元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（48人 * 500元 * 1个月 = 24000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中部一年总利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费（96人 * 1000元 = 96000元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中部一年总利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学部利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学部一年总利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招生成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,24 +263,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -601,378 +585,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="69.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="44.25" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <f>SUM(D4:D7)</f>
-        <v>228000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>252800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23.25" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>SUM(D12:D15)</f>
+        <v>370500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="3">
-        <f>SUM(D13:D16)</f>
-        <v>158500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="40.5">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="40.5">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <f>SUM(D20:D23)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="3">
-        <f>SUM(D22:D25)</f>
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>252800</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>370500</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>228000</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18000</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3">
-        <v>158500</v>
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-24000</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3">
-        <v>128000</v>
+        <v>37</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-69600</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="3">
-        <v>-24000</v>
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
+        <f>SUM(B27:B31)</f>
+        <v>547700</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3">
-        <f>SUM(B29:B33)</f>
-        <v>458500</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
